--- a/Proyectos/2017/2/P2224 - ERI,Filiberto_AG/Compras/P2224 - ERI,Filiberto_AG.xlsx
+++ b/Proyectos/2017/2/P2224 - ERI,Filiberto_AG/Compras/P2224 - ERI,Filiberto_AG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Deal</t>
   </si>
@@ -294,6 +294,27 @@
   </si>
   <si>
     <t>El número de serie de Easy Retail se obtiene del demo (que debe estar instalado en la computadora del cliente ),en -menú ayuda-acerca de-</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS CHEGUE LUNA        CELR761125DR5           250 TIMBRES</t>
+  </si>
+  <si>
+    <t>CLINICA DE MATERNIDAD NUESTRA SRA DE JUQUILA          CMN010317PW9        150 TIMBRES</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO LOZADA BELLO         LOBA801213LR2          250 TIMBRES</t>
+  </si>
+  <si>
+    <t>SABINA VISOSOS RODRIGUEZ         VIRS680410JE1        200 TIMBRES</t>
+  </si>
+  <si>
+    <t>CHELU CP    CCP100410354      150 TIMBRES</t>
+  </si>
+  <si>
+    <t>91EWEGZD</t>
   </si>
 </sst>
 </file>
@@ -843,12 +864,57 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,56 +938,11 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1284,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,159 +1326,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="61">
         <v>44400</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1472,167 +1493,167 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="50" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="65" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -1738,27 +1759,27 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="42" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43" t="s">
+      <c r="G26" s="57"/>
+      <c r="H26" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="51" t="s">
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
@@ -1812,29 +1833,43 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="16"/>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>50</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="33"/>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="O28" s="38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P28" s="35">
         <f>N28*(1-O28)</f>
-        <v>0</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1845,8 +1880,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="16"/>
@@ -2216,48 +2255,56 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N43" s="53" t="s">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="53"/>
+      <c r="O43" s="39"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
-        <v>0</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N44" s="53" t="s">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="53"/>
+      <c r="O44" s="39"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
-        <v>0</v>
+        <v>199.20000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N45" s="53" t="s">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="N45" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="53"/>
+      <c r="O45" s="39"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
-        <v>0</v>
+        <v>1444.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:M6"/>
@@ -2274,6 +2321,17 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>

--- a/Proyectos/2017/2/P2224 - ERI,Filiberto_AG/Compras/P2224 - ERI,Filiberto_AG.xlsx
+++ b/Proyectos/2017/2/P2224 - ERI,Filiberto_AG/Compras/P2224 - ERI,Filiberto_AG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Deal</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>91EWEGZD</t>
+  </si>
+  <si>
+    <t>Llave de activación</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,57 +867,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,11 +899,56 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1305,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,102 +1328,108 @@
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
@@ -1433,8 +1445,9 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1447,17 +1460,18 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1470,17 +1484,18 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="47">
         <v>44400</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1493,17 +1508,18 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,17 +1532,18 @@
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1539,17 +1556,18 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
@@ -1565,97 +1583,103 @@
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="61"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1669,8 +1693,9 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
@@ -1686,8 +1711,9 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1705,8 +1731,9 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="27" t="s">
         <v>59</v>
@@ -1722,8 +1749,9 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="27" t="s">
         <v>60</v>
@@ -1739,8 +1767,9 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26"/>
       <c r="C24" s="23"/>
@@ -1751,37 +1780,38 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="57" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="65" t="s">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+    </row>
+    <row r="27" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
@@ -1813,25 +1843,28 @@
         <v>21</v>
       </c>
       <c r="K27" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="M27" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="N27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="O27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>1</v>
       </c>
@@ -1858,21 +1891,22 @@
       <c r="J28" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="37">
+      <c r="M28" s="6"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="37">
         <v>2490</v>
       </c>
-      <c r="O28" s="38">
+      <c r="P28" s="38">
         <v>0.5</v>
       </c>
-      <c r="P28" s="35">
-        <f>N28*(1-O28)</f>
+      <c r="Q28" s="35">
+        <f>O28*(1-P28)</f>
         <v>1245</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>0</v>
       </c>
@@ -1889,21 +1923,22 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="37">
-        <v>0</v>
-      </c>
-      <c r="O29" s="38">
-        <v>0</v>
-      </c>
-      <c r="P29" s="35">
-        <f t="shared" ref="P29:P42" si="0">N29*(1-O29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="6"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="37">
+        <v>0</v>
+      </c>
+      <c r="P29" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="35">
+        <f t="shared" ref="Q29:Q42" si="0">O29*(1-P29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>0</v>
       </c>
@@ -1916,21 +1951,22 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="37">
-        <v>0</v>
-      </c>
-      <c r="O30" s="38">
-        <v>0</v>
-      </c>
-      <c r="P30" s="35">
+      <c r="M30" s="6"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="37">
+        <v>0</v>
+      </c>
+      <c r="P30" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>0</v>
       </c>
@@ -1943,21 +1979,22 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="37">
-        <v>0</v>
-      </c>
-      <c r="O31" s="38">
-        <v>0</v>
-      </c>
-      <c r="P31" s="35">
+      <c r="M31" s="6"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="37">
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>0</v>
       </c>
@@ -1970,21 +2007,22 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="37">
-        <v>0</v>
-      </c>
-      <c r="O32" s="38">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
+      <c r="M32" s="6"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="37">
+        <v>0</v>
+      </c>
+      <c r="P32" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>0</v>
       </c>
@@ -1997,21 +2035,22 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="37">
-        <v>0</v>
-      </c>
-      <c r="O33" s="38">
-        <v>0</v>
-      </c>
-      <c r="P33" s="35">
+      <c r="M33" s="6"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="37">
+        <v>0</v>
+      </c>
+      <c r="P33" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>0</v>
       </c>
@@ -2024,21 +2063,22 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="37">
-        <v>0</v>
-      </c>
-      <c r="O34" s="38">
-        <v>0</v>
-      </c>
-      <c r="P34" s="35">
+      <c r="M34" s="6"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="37">
+        <v>0</v>
+      </c>
+      <c r="P34" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>0</v>
       </c>
@@ -2051,21 +2091,22 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="37">
-        <v>0</v>
-      </c>
-      <c r="O35" s="38">
-        <v>0</v>
-      </c>
-      <c r="P35" s="35">
+      <c r="M35" s="6"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="37">
+        <v>0</v>
+      </c>
+      <c r="P35" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>0</v>
       </c>
@@ -2078,21 +2119,22 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="37">
-        <v>0</v>
-      </c>
-      <c r="O36" s="38">
-        <v>0</v>
-      </c>
-      <c r="P36" s="35">
+      <c r="M36" s="6"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="37">
+        <v>0</v>
+      </c>
+      <c r="P36" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>0</v>
       </c>
@@ -2105,21 +2147,22 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="6"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="38">
-        <v>0</v>
-      </c>
-      <c r="P37" s="35">
+      <c r="M37" s="6"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>0</v>
       </c>
@@ -2132,21 +2175,22 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="6"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="37">
-        <v>0</v>
-      </c>
-      <c r="O38" s="38">
-        <v>0</v>
-      </c>
-      <c r="P38" s="35">
+      <c r="M38" s="6"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="37">
+        <v>0</v>
+      </c>
+      <c r="P38" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>0</v>
       </c>
@@ -2159,21 +2203,22 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="37">
-        <v>0</v>
-      </c>
-      <c r="O39" s="38">
-        <v>0</v>
-      </c>
-      <c r="P39" s="35">
+      <c r="M39" s="6"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="37">
+        <v>0</v>
+      </c>
+      <c r="P39" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>0</v>
       </c>
@@ -2186,21 +2231,22 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="37">
-        <v>0</v>
-      </c>
-      <c r="O40" s="38">
-        <v>0</v>
-      </c>
-      <c r="P40" s="35">
+      <c r="M40" s="6"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="37">
+        <v>0</v>
+      </c>
+      <c r="P40" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>0</v>
       </c>
@@ -2213,21 +2259,22 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="37">
-        <v>0</v>
-      </c>
-      <c r="O41" s="38">
-        <v>0</v>
-      </c>
-      <c r="P41" s="35">
+      <c r="M41" s="6"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="37">
+        <v>0</v>
+      </c>
+      <c r="P41" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>0</v>
       </c>
@@ -2240,98 +2287,99 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="37">
-        <v>0</v>
-      </c>
-      <c r="O42" s="38">
-        <v>0</v>
-      </c>
-      <c r="P42" s="35">
+      <c r="M42" s="12"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="37">
+        <v>0</v>
+      </c>
+      <c r="P42" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="O43" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="36">
-        <f>+SUM(P28:P42)</f>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="36">
+        <f>+SUM(Q28:Q42)</f>
         <v>1245</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="O44" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="35">
-        <f>+P43*0.16</f>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="35">
+        <f>+Q43*0.16</f>
         <v>199.20000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="O45" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="36">
-        <f>+P43+P44</f>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="36">
+        <f>+Q43+Q44</f>
         <v>1444.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A17:N18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:N15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G14:N14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="L26:N26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
